--- a/assets/template/kolektif.xlsx
+++ b/assets/template/kolektif.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D3 SI\SEMESTER 4\PKL\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D3 SI\SEMESTER 4\PKL\Project\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F106D6F1-C4AB-4992-8F6A-187BFECE207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDC2BFB-E863-4788-A946-523DACF9AC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E89249A3-52C0-40B9-951C-FD7CA51886F3}"/>
+    <workbookView xWindow="1305" yWindow="345" windowWidth="19185" windowHeight="10575" xr2:uid="{E89249A3-52C0-40B9-951C-FD7CA51886F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>contoh@gmail.com</t>
   </si>
   <si>
-    <t>andika 'contoh'</t>
-  </si>
-  <si>
     <t>P/L</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>BARIS 1 HANYA CONTOH DAN JANGAN DIHAPUS</t>
+  </si>
+  <si>
+    <t>Anindieva Alya (Contoh)</t>
   </si>
 </sst>
 </file>
@@ -486,14 +486,14 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
@@ -506,14 +506,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -542,17 +542,17 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>12345</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>81234567</v>
@@ -570,18 +570,18 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{535F081A-8AC7-4E23-BD59-322AC704FF0C}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{535F081A-8AC7-4E23-BD59-322AC704FF0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/assets/template/kolektif.xlsx
+++ b/assets/template/kolektif.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D3 SI\SEMESTER 4\PKL\Project\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDC2BFB-E863-4788-A946-523DACF9AC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FAD714-4F77-4EE8-AF9C-994B2A90D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="345" windowWidth="19185" windowHeight="10575" xr2:uid="{E89249A3-52C0-40B9-951C-FD7CA51886F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E89249A3-52C0-40B9-951C-FD7CA51886F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nama</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Anindieva Alya (Contoh)</t>
+  </si>
+  <si>
+    <t>FIB</t>
+  </si>
+  <si>
+    <t>Asal Fakultas</t>
   </si>
 </sst>
 </file>
@@ -162,12 +168,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D43703-1416-4C54-8F0A-AB728FA3346C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +546,9 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -576,10 +586,18 @@
         <v>16</v>
       </c>
       <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fakultas" prompt="Masukkan Fakultas Jika Merupakan Alumni" sqref="L2:L201" xr:uid="{CA3B6106-5500-4487-937F-A6DDB31FB9C8}">
+      <formula1>"FIB,FEB,FK,FKG,FKH,FPK,Fpsi,Ffarm,FKM,FST,FH,Fkep,FISIP,FV,Pasca,FTMM"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{535F081A-8AC7-4E23-BD59-322AC704FF0C}"/>
   </hyperlinks>

--- a/assets/template/kolektif.xlsx
+++ b/assets/template/kolektif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D3 SI\SEMESTER 4\PKL\Project\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FAD714-4F77-4EE8-AF9C-994B2A90D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FFFDF4-8552-4875-B134-EC6976150B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E89249A3-52C0-40B9-951C-FD7CA51886F3}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D43703-1416-4C54-8F0A-AB728FA3346C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -593,9 +593,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fakultas" prompt="Masukkan Fakultas Jika Merupakan Alumni" sqref="L2:L201" xr:uid="{CA3B6106-5500-4487-937F-A6DDB31FB9C8}">
       <formula1>"FIB,FEB,FK,FKG,FKH,FPK,Fpsi,Ffarm,FKM,FST,FH,Fkep,FISIP,FV,Pasca,FTMM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Gender" prompt="Masukkan Data Yang Sesuai_x000a_" sqref="D3:D201" xr:uid="{77D36224-23F9-4E3C-ADA0-5A36C6EAB054}">
+      <formula1>"P,L"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alumni" prompt="Jika anda alumni Unair pilih Ya" sqref="K3:K201" xr:uid="{118C7DA0-B045-4AE4-AB1C-1B475BC42B50}">
+      <formula1>"Ya,Tidak"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/assets/template/kolektif.xlsx
+++ b/assets/template/kolektif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D3 SI\SEMESTER 4\PKL\Project\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FFFDF4-8552-4875-B134-EC6976150B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C70B7B-1EFF-4A2B-A16C-272FDE75ED69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E89249A3-52C0-40B9-951C-FD7CA51886F3}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D43703-1416-4C54-8F0A-AB728FA3346C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +593,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fakultas" prompt="Masukkan Fakultas Jika Merupakan Alumni" sqref="L2:L201" xr:uid="{CA3B6106-5500-4487-937F-A6DDB31FB9C8}">
+  <dataValidations xWindow="1184" yWindow="321" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fakultas" prompt="Masukkan Fakultas Jika Merupakan Alumni, dan jika bukan tidak perlu mengisi" sqref="L2:L201" xr:uid="{CA3B6106-5500-4487-937F-A6DDB31FB9C8}">
       <formula1>"FIB,FEB,FK,FKG,FKH,FPK,Fpsi,Ffarm,FKM,FST,FH,Fkep,FISIP,FV,Pasca,FTMM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Gender" prompt="Masukkan Data Yang Sesuai_x000a_" sqref="D3:D201" xr:uid="{77D36224-23F9-4E3C-ADA0-5A36C6EAB054}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Gender" prompt="Pilih L untuk Lelaki dan P untuk Perempuan" sqref="D3:D201" xr:uid="{77D36224-23F9-4E3C-ADA0-5A36C6EAB054}">
       <formula1>"P,L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alumni" prompt="Jika anda alumni Unair pilih Ya" sqref="K3:K201" xr:uid="{118C7DA0-B045-4AE4-AB1C-1B475BC42B50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alumni" prompt="Jika anda alumni Unair pilih Ya, dan jika bukan alumni pilih tidak" sqref="K3:K201" xr:uid="{118C7DA0-B045-4AE4-AB1C-1B475BC42B50}">
       <formula1>"Ya,Tidak"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/template/kolektif.xlsx
+++ b/assets/template/kolektif.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D3 SI\SEMESTER 4\PKL\Project\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C70B7B-1EFF-4A2B-A16C-272FDE75ED69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E1C358-DCF6-4033-BDEC-F43271627B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E89249A3-52C0-40B9-951C-FD7CA51886F3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Nama</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Alumni</t>
   </si>
   <si>
-    <t>Ngagel</t>
-  </si>
-  <si>
     <t>Surabaya</t>
   </si>
   <si>
@@ -99,6 +96,13 @@
   </si>
   <si>
     <t>Asal Fakultas</t>
+  </si>
+  <si>
+    <t>Bersedia Menerima 
+Email Dari AEEC</t>
+  </si>
+  <si>
+    <t>Bersedia  Berlangganan Newsletter</t>
   </si>
 </sst>
 </file>
@@ -171,10 +175,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D43703-1416-4C54-8F0A-AB728FA3346C}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,59 +516,66 @@
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="N1" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2">
         <v>12345</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>81234567</v>
@@ -574,26 +587,32 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations xWindow="1184" yWindow="321" count="3">
+  <dataValidations xWindow="1184" yWindow="321" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fakultas" prompt="Masukkan Fakultas Jika Merupakan Alumni, dan jika bukan tidak perlu mengisi" sqref="L2:L201" xr:uid="{CA3B6106-5500-4487-937F-A6DDB31FB9C8}">
       <formula1>"FIB,FEB,FK,FKG,FKH,FPK,Fpsi,Ffarm,FKM,FST,FH,Fkep,FISIP,FV,Pasca,FTMM"</formula1>
     </dataValidation>
@@ -601,6 +620,12 @@
       <formula1>"P,L"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alumni" prompt="Jika anda alumni Unair pilih Ya, dan jika bukan alumni pilih tidak" sqref="K3:K201" xr:uid="{118C7DA0-B045-4AE4-AB1C-1B475BC42B50}">
+      <formula1>"Ya,Tidak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Email" prompt="Pilih Ya jika bersedia menerima email dari Airlangga Executive Education Center mengenai berbagai pembaruan dan penawaran khusus AEEC UNAIR" sqref="M3:M210" xr:uid="{80CEBDD7-9C93-4DFC-98AE-083FE2F4D9C9}">
+      <formula1>"Ya,Tidak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="newslatter" prompt="Pilih Ya jika bersedia berlangganan newsletter dari Airlangga Executive Education Center" sqref="N3:N210" xr:uid="{2C0512CC-1E20-42D1-BDFE-3B0F2EF7496D}">
       <formula1>"Ya,Tidak"</formula1>
     </dataValidation>
   </dataValidations>
